--- a/Johns Hopkins AI Hackathon Answer Worksheet.xlsx
+++ b/Johns Hopkins AI Hackathon Answer Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shuklamoksh/Documents/AI_Hackathon/Protenus AI Hackathon Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73FAD7-EDCB-9A49-B9A7-9DBF47D2B520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BA4A98-2EAE-8643-9596-43A54E1A0708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="740" windowWidth="27640" windowHeight="16540" xr2:uid="{13D48A78-37AA-4B48-BBAF-CCE56FD507B7}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="11">
-        <v>3316412</v>
+        <v>1939885</v>
       </c>
       <c r="E7" s="7"/>
     </row>
